--- a/pred_ohlcv/54_21/2020-01-16 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BHP ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3483.110300000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3944.214700000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2944.214700000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2786.825100000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3471.725100000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3471.725100000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>26323.3952</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>26323.3952</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>26655.9411</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>26643.34110000001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>26643.34110000001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>26889.34110000001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>26884.56500000001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>26884.56500000001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>34583.38500000002</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>34539.89430000003</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>35011.70360000003</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>35408.91250000003</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>35408.91250000003</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>35398.71250000003</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>35398.71250000003</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>35383.01250000003</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>35383.01250000003</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>35108.76590000003</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>35004.06590000004</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>35020.86590000004</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>39091.93130000003</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>40106.63130000003</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>40106.63130000003</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>40572.63130000003</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>40561.73130000003</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>42077.41473201003</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>41071.51473201003</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>41678.48463201003</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>42044.31693201004</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>42044.31693201004</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>42031.01693201003</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>42031.01693201003</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>41884.69893201003</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>41884.69893201003</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>41884.69893201003</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>42288.89893201003</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>42288.89893201003</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>42273.09893201003</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>42421.49893201003</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>42421.49893201003</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>42417.49893201003</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>42532.90933201003</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>42527.80933201003</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>42502.85413201003</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>42500.15413201004</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>42488.65413201004</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>41536.57703201003</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>41224.42663201004</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>44039.14153201003</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>44039.14153201003</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>44045.54153201003</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>44045.54153201003</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>44133.06043201003</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>44133.06043201003</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>44092.92023201003</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>43737.11733201003</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>43737.11733201003</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>43725.91733201003</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>44391.20043201003</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>44405.60043201003</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>44887.48813201003</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>44674.08813201003</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>44663.18813201003</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>43840.86523201003</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>43262.43733201003</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>42825.03203201003</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>42809.33203201003</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>43475.62673201003</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>43475.62673201003</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>43475.62673201003</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>43442.67033201003</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>43426.17033201003</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43426.17033201003</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>43420.87033201002</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>48712.53932731001</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>48712.53932731001</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>50669.49442731</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>50634.96902731001</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>50541.63782731001</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>51559.80662731</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>53337.95702731</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>53344.65702731</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>54030.85142731</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>54009.54372731</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>54009.54372731</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>54009.54372731</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>52528.69552731</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>52545.39552731</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>54162.88332731</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>54138.38332731</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>58265.34502731</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>58257.24502731</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>58735.34502731</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>58484.65982731</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>58846.87462731</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>58846.87462731</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>58454.90672730999</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>58477.40672730999</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>59177.40672730999</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>59695.90672730999</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>59695.90672730999</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>59695.90672730999</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>59688.90672730999</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>59866.40672730999</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>60069.60672730999</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>60229.03202730999</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>58689.55242730999</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>58679.55242730999</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>59786.75242730999</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>60342.94612731</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>60328.54612730999</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>61306.94612731</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>60938.97012730999</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>60943.77012731</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>60943.77012731</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>61731.37012730999</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>61201.57962730999</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>61201.57962730999</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>61197.37962730999</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>61197.37962730999</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>61179.67962731</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>61170.17962731</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>61170.17962731</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>59957.56392730999</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>60073.56392730999</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>60704.56392730999</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>60824.06392730999</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>60824.06392730999</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>60829.76392730998</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>61064.37097664998</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>61064.37097664998</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>61076.48005837998</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>62239.68005837998</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>62239.68005837998</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>62730.88005837998</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>69032.75940903999</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>69432.75940903999</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>69420.35940904</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>69610.35940904</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>61239.30880904001</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>65748.02256316</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>65729.02256316</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BHP ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3483.110300000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3944.214700000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2944.214700000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2786.825100000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>26323.3952</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>26323.3952</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>26655.9411</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>26648.34110000001</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>26643.34110000001</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>26643.34110000001</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>26889.34110000001</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>26884.56500000001</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>26884.56500000001</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>34583.38500000002</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>34539.89430000003</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>35011.70360000003</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>35408.91250000003</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>35408.91250000003</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>35398.71250000003</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>35398.71250000003</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>35383.01250000003</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>35383.01250000003</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>35108.76590000003</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>35004.06590000004</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>35020.86590000004</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>39091.93130000003</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>40106.63130000003</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>40106.63130000003</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>40572.63130000003</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>40561.73130000003</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>42077.41473201003</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>41071.51473201003</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>41678.48463201003</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>42044.31693201004</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>42044.31693201004</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>42031.01693201003</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>42031.01693201003</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>41884.69893201003</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>41884.69893201003</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>41884.69893201003</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>42288.89893201003</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>42288.89893201003</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>42273.09893201003</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>42421.49893201003</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>42421.49893201003</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>42417.49893201003</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>42532.90933201003</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>42527.80933201003</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>42502.85413201003</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>42500.15413201004</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>42488.65413201004</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>41536.57703201003</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>41224.42663201004</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>44039.14153201003</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>44039.14153201003</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>44045.54153201003</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>44045.54153201003</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>44133.06043201003</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>44133.06043201003</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>44092.92023201003</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>43737.11733201003</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>43737.11733201003</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>43725.91733201003</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>44391.20043201003</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>44405.60043201003</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>44212.11893201003</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>44887.48813201003</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>44674.08813201003</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>44663.18813201003</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>43840.86523201003</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>43262.43733201003</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>42825.03203201003</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>42809.33203201003</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>43475.62673201003</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>43475.62673201003</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>43475.62673201003</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>43442.67033201003</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>43425.17033201003</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>43426.17033201003</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43426.17033201003</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>43420.87033201002</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>48712.53932731001</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>48712.53932731001</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>50669.49442731</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>50634.96902731001</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>50541.63782731001</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>51559.80662731</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>53337.95702731</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>53344.65702731</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>54030.85142731</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>54009.54372731</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>54009.54372731</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>54009.54372731</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>52528.69552731</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>52545.39552731</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>54162.88332731</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>54138.38332731</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>56882.11502730999</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>58265.34502731</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>58257.24502731</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>58735.34502731</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>58484.65982731</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>58846.87462731</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>58846.87462731</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>58454.90672730999</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>58463.10672730999</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>58477.40672730999</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>59177.40672730999</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>59695.90672730999</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>59695.90672730999</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>59695.90672730999</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>59688.90672730999</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>59866.40672730999</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>60069.60672730999</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>60229.03202730999</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>58689.55242730999</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>58679.55242730999</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>59786.75242730999</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>60342.94612731</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>60328.54612730999</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>61306.94612731</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>60938.97012730999</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>60943.77012731</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>60943.77012731</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>61731.37012730999</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>61201.57962730999</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>61201.57962730999</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>61197.37962730999</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>61197.37962730999</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>61179.67962731</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>61170.17962731</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>61170.17962731</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>59957.56392730999</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>60080.36392730999</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>60073.56392730999</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>60704.56392730999</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>60824.06392730999</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>60824.06392730999</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>60829.76392730998</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>61064.37097664998</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>61064.37097664998</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>61076.48005837998</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>62239.68005837998</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>62239.68005837998</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>62730.88005837998</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>65748.02256316</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>65729.02256316</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
